--- a/inst/extdata/CopyOfData/howard55.xlsx
+++ b/inst/extdata/CopyOfData/howard55.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Documents/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2180" windowWidth="25880" windowHeight="12160" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="1700" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,15 +18,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <r>
+      <t>Table 55--Insulating board</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> production, imports, exports, and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> consumption, 1965-1999</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (thousand tons)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <r>
+      <t>Imports</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per capita</t>
+  </si>
+  <si>
+    <t>Thousand</t>
+  </si>
+  <si>
+    <t>tons</t>
+  </si>
+  <si>
+    <t>pounds</t>
+  </si>
+  <si>
+    <t>NAICS code 3212195100</t>
+  </si>
+  <si>
+    <t>Production from Economic Census of U.S.</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Density equal to or less than 31 lb/ft</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mil sq ft 1/2 inch</t>
+  </si>
+  <si>
+    <t>1000 tons</t>
+  </si>
+  <si>
+    <t>tons/1000 sf 1/2 inch</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Product of table 53 using a conversion of .367.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Includes other building board.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Preliminary.</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -50,12 +248,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,925 +654,2505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:E56"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" thickBot="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" thickBot="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="14">
+        <v>1965</v>
+      </c>
+      <c r="B7" s="14">
         <v>1233.854</v>
       </c>
-      <c r="B1">
+      <c r="C7" s="14">
         <v>27.524999999999999</v>
       </c>
-      <c r="C1">
+      <c r="D7" s="14">
         <v>15.414</v>
       </c>
-      <c r="D1">
+      <c r="E7" s="14">
         <v>1245.9649999999999</v>
       </c>
-      <c r="E1">
+      <c r="F7" s="14">
         <v>6.4125836335563564</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="14">
+        <v>1966</v>
+      </c>
+      <c r="B8" s="14">
         <v>1129.9929999999999</v>
       </c>
-      <c r="B2">
+      <c r="C8" s="14">
         <v>24.588999999999999</v>
       </c>
-      <c r="C2">
+      <c r="D8" s="14">
         <v>17.616</v>
       </c>
-      <c r="D2">
+      <c r="E8" s="14">
         <v>1136.9659999999999</v>
       </c>
-      <c r="E2">
+      <c r="F8" s="14">
         <v>5.7831434384537124</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="14">
+        <v>1967</v>
+      </c>
+      <c r="B9" s="14">
         <v>1177.703</v>
       </c>
-      <c r="B3">
+      <c r="C9" s="14">
         <v>25.323</v>
       </c>
-      <c r="C3">
+      <c r="D9" s="14">
         <v>16.515000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E9" s="14">
         <v>1186.511</v>
       </c>
-      <c r="E3">
+      <c r="F9" s="14">
         <v>5.9713688978359336</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="14">
+        <v>1968</v>
+      </c>
+      <c r="B10" s="14">
         <v>1275.692</v>
       </c>
-      <c r="B4">
+      <c r="C10" s="14">
         <v>34.497999999999998</v>
       </c>
-      <c r="C4">
+      <c r="D10" s="14">
         <v>16.515000000000001</v>
       </c>
-      <c r="D4">
+      <c r="E10" s="14">
         <v>1293.675</v>
       </c>
-      <c r="E4">
+      <c r="F10" s="14">
         <v>6.4458146487294474</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="14">
+        <v>1969</v>
+      </c>
+      <c r="B11" s="14">
         <v>1329.6410000000001</v>
       </c>
-      <c r="B5">
+      <c r="C11" s="14">
         <v>35.966000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D11" s="14">
         <v>23.855</v>
       </c>
-      <c r="D5">
+      <c r="E11" s="14">
         <v>1341.752</v>
       </c>
-      <c r="E5">
+      <c r="F11" s="14">
         <v>6.6193981253083374</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="14">
+        <v>1970</v>
+      </c>
+      <c r="B12" s="14">
         <v>1172.1979999999999</v>
       </c>
-      <c r="B6">
+      <c r="C12" s="14">
         <v>37.801000000000002</v>
       </c>
-      <c r="C6">
+      <c r="D12" s="14">
         <v>18.716999999999999</v>
       </c>
-      <c r="D6">
+      <c r="E12" s="14">
         <v>1191.2819999999997</v>
       </c>
-      <c r="E6">
+      <c r="F12" s="14">
         <v>5.8082983910287656</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="14">
+        <v>1971</v>
+      </c>
+      <c r="B13" s="14">
         <v>1408.913</v>
       </c>
-      <c r="B7">
+      <c r="C13" s="14">
         <v>42.204999999999998</v>
       </c>
-      <c r="C7">
+      <c r="D13" s="14">
         <v>23.855</v>
       </c>
-      <c r="D7">
+      <c r="E13" s="14">
         <v>1427.2629999999999</v>
       </c>
-      <c r="E7">
+      <c r="F13" s="14">
         <v>6.8717525276841602</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="14">
+        <v>1972</v>
+      </c>
+      <c r="B14" s="14">
         <v>1437.9059999999999</v>
       </c>
-      <c r="B8">
+      <c r="C14" s="14">
         <v>44.406999999999996</v>
       </c>
-      <c r="C8">
+      <c r="D14" s="14">
         <v>24.222000000000001</v>
       </c>
-      <c r="D8">
+      <c r="E14" s="14">
         <v>1458.0909999999999</v>
       </c>
-      <c r="E8">
+      <c r="F14" s="14">
         <v>6.9465983801810376</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="14">
+        <v>1973</v>
+      </c>
+      <c r="B15" s="14">
         <v>1436.4379999999999</v>
       </c>
-      <c r="B9">
+      <c r="C15" s="14">
         <v>51.38</v>
       </c>
-      <c r="C9">
+      <c r="D15" s="14">
         <v>28.992999999999999</v>
       </c>
-      <c r="D9">
+      <c r="E15" s="14">
         <v>1458.825</v>
       </c>
-      <c r="E9">
+      <c r="F15" s="14">
         <v>6.8844974044360541</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="14">
+        <v>1974</v>
+      </c>
+      <c r="B16" s="14">
         <v>1204.4939999999999</v>
       </c>
-      <c r="B10">
+      <c r="C16" s="14">
         <v>26.423999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D16" s="14">
         <v>37.433999999999997</v>
       </c>
-      <c r="D10">
+      <c r="E16" s="14">
         <v>1193.4839999999999</v>
       </c>
-      <c r="E10">
+      <c r="F16" s="14">
         <v>5.5796353436185129</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="14">
+        <v>1975</v>
+      </c>
+      <c r="B17" s="14">
         <v>1086.32</v>
       </c>
-      <c r="B11">
+      <c r="C17" s="14">
         <v>13.212</v>
       </c>
-      <c r="C11">
+      <c r="D17" s="14">
         <v>28.259</v>
       </c>
-      <c r="D11">
+      <c r="E17" s="14">
         <v>1071.2729999999999</v>
       </c>
-      <c r="E11">
+      <c r="F17" s="14">
         <v>4.9595972222222215</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="14">
+        <v>1976</v>
+      </c>
+      <c r="B18" s="14">
         <v>1250.3689999999999</v>
       </c>
-      <c r="B12">
+      <c r="C18" s="14">
         <v>16.515000000000001</v>
       </c>
-      <c r="C12">
+      <c r="D18" s="14">
         <v>28.259</v>
       </c>
-      <c r="D12">
+      <c r="E18" s="14">
         <v>1238.625</v>
       </c>
-      <c r="E12">
+      <c r="F18" s="14">
         <v>5.6817660550458715</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="14">
+        <v>1977</v>
+      </c>
+      <c r="B19" s="14">
         <v>1270.5540000000001</v>
       </c>
-      <c r="B13">
+      <c r="C19" s="14">
         <v>39.268999999999998</v>
       </c>
-      <c r="C13">
+      <c r="D19" s="14">
         <v>30.827999999999999</v>
       </c>
-      <c r="D13">
+      <c r="E19" s="14">
         <v>1278.9949999999999</v>
       </c>
-      <c r="E13">
+      <c r="F19" s="14">
         <v>5.8083333333333345</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="14">
+        <v>1978</v>
+      </c>
+      <c r="B20" s="14">
         <v>1261.3789999999999</v>
       </c>
-      <c r="B14">
+      <c r="C20" s="14">
         <v>51.012999999999998</v>
       </c>
-      <c r="C14">
+      <c r="D20" s="14">
         <v>38.902000000000001</v>
       </c>
-      <c r="D14">
+      <c r="E20" s="14">
         <v>1273.49</v>
       </c>
-      <c r="E14">
+      <c r="F20" s="14">
         <v>5.720979335130278</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="14">
+        <v>1979</v>
+      </c>
+      <c r="B21" s="14">
         <v>1214.77</v>
       </c>
-      <c r="B15">
+      <c r="C21" s="14">
         <v>50.646000000000001</v>
       </c>
-      <c r="C15">
+      <c r="D21" s="14">
         <v>17.983000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E21" s="14">
         <v>1247.433</v>
       </c>
-      <c r="E15">
+      <c r="F21" s="14">
         <v>5.5416836961350509</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="14">
+        <v>1980</v>
+      </c>
+      <c r="B22" s="14">
         <v>1020.26</v>
       </c>
-      <c r="B16">
+      <c r="C22" s="14">
         <v>36.700000000000003</v>
       </c>
-      <c r="C16">
+      <c r="D22" s="14">
         <v>22.753999999999998</v>
       </c>
-      <c r="D16">
+      <c r="E22" s="14">
         <v>1034.2060000000001</v>
       </c>
-      <c r="E16">
+      <c r="F22" s="14">
         <v>4.541967501097937</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="14">
+        <v>1981</v>
+      </c>
+      <c r="B23" s="14">
         <v>779.50800000000004</v>
       </c>
-      <c r="B17">
+      <c r="C23" s="14">
         <v>38.167999999999999</v>
       </c>
-      <c r="C17">
+      <c r="D23" s="14">
         <v>40.369999999999997</v>
       </c>
-      <c r="D17">
+      <c r="E23" s="14">
         <v>777.30600000000004</v>
       </c>
-      <c r="E17">
+      <c r="F23" s="14">
         <v>3.3795913043478261</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="14">
+        <v>1982</v>
+      </c>
+      <c r="B24" s="14">
         <v>656.93</v>
       </c>
-      <c r="B18">
+      <c r="C24" s="14">
         <v>43.305999999999997</v>
       </c>
-      <c r="C18">
+      <c r="D24" s="14">
         <v>24.588999999999999</v>
       </c>
-      <c r="D18">
+      <c r="E24" s="14">
         <v>675.64699999999993</v>
       </c>
-      <c r="E18">
+      <c r="F24" s="14">
         <v>2.9097631352282516</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="14">
+        <v>1983</v>
+      </c>
+      <c r="B25" s="14">
         <v>835.65899999999999</v>
       </c>
-      <c r="B19">
+      <c r="C25" s="14">
         <v>74.867999999999995</v>
       </c>
-      <c r="C19">
+      <c r="D25" s="14">
         <v>30.460999999999999</v>
       </c>
-      <c r="D19">
+      <c r="E25" s="14">
         <v>880.06600000000003</v>
       </c>
-      <c r="E19">
+      <c r="F25" s="14">
         <v>3.7561502347417841</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="14">
+        <v>1984</v>
+      </c>
+      <c r="B26" s="14">
         <v>934.01499999999999</v>
       </c>
-      <c r="B20">
+      <c r="C26" s="14">
         <v>104.962</v>
       </c>
-      <c r="C20">
+      <c r="D26" s="14">
         <v>32.662999999999997</v>
       </c>
-      <c r="D20">
+      <c r="E26" s="14">
         <v>1006.3140000000001</v>
       </c>
-      <c r="E20">
+      <c r="F26" s="14">
         <v>4.2586288616165895</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="14">
+        <v>1985</v>
+      </c>
+      <c r="B27" s="14">
         <v>903.18700000000001</v>
       </c>
-      <c r="B21">
+      <c r="C27" s="14">
         <v>125.881</v>
       </c>
-      <c r="C21">
+      <c r="D27" s="14">
         <v>29.36</v>
       </c>
-      <c r="D21">
+      <c r="E27" s="14">
         <v>999.70799999999997</v>
       </c>
-      <c r="E21">
+      <c r="F27" s="14">
         <v>4.1916477987421379</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="14">
+        <v>1986</v>
+      </c>
+      <c r="B28" s="14">
         <v>805.19799999999998</v>
       </c>
-      <c r="B22">
+      <c r="C28" s="14">
         <v>124.04599999999999</v>
       </c>
-      <c r="C22">
+      <c r="D28" s="14">
         <v>42.939</v>
       </c>
-      <c r="D22">
+      <c r="E28" s="14">
         <v>886.30499999999995</v>
       </c>
-      <c r="E22">
+      <c r="F28" s="14">
         <v>3.682197756543415</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="14">
+        <v>1987</v>
+      </c>
+      <c r="B29" s="14">
         <v>822.81399999999996</v>
       </c>
-      <c r="B23">
+      <c r="C29" s="14">
         <v>100.191</v>
       </c>
-      <c r="C23">
+      <c r="D29" s="14">
         <v>46.609000000000002</v>
       </c>
-      <c r="D23">
+      <c r="E29" s="14">
         <v>876.39599999999996</v>
       </c>
-      <c r="E23">
+      <c r="F29" s="14">
         <v>3.6095387149917624</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="14">
+        <v>1988</v>
+      </c>
+      <c r="B30" s="14">
         <v>858.78</v>
       </c>
-      <c r="B24">
+      <c r="C30" s="14">
         <v>117.44</v>
       </c>
-      <c r="C24">
+      <c r="D30" s="14">
         <v>74.501000000000005</v>
       </c>
-      <c r="D24">
+      <c r="E30" s="14">
         <v>901.71900000000005</v>
       </c>
-      <c r="E24">
+      <c r="F30" s="14">
         <v>3.6804857142857146</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="14">
+        <v>1989</v>
+      </c>
+      <c r="B31" s="14">
         <v>900.98500000000001</v>
       </c>
-      <c r="B25">
+      <c r="C31" s="14">
         <v>126.982</v>
       </c>
-      <c r="C25">
+      <c r="D31" s="14">
         <v>66.06</v>
       </c>
-      <c r="D25">
+      <c r="E31" s="14">
         <v>961.90700000000015</v>
       </c>
-      <c r="E25">
+      <c r="F31" s="14">
         <v>3.8896360695511527</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="14">
+        <v>1990</v>
+      </c>
+      <c r="B32" s="14">
         <v>867.95500000000004</v>
       </c>
-      <c r="B26">
+      <c r="C32" s="14">
         <v>106.43</v>
       </c>
-      <c r="C26">
+      <c r="D32" s="14">
         <v>64.224999999999994</v>
       </c>
-      <c r="D26">
+      <c r="E32" s="14">
         <v>910.16</v>
       </c>
-      <c r="E26">
+      <c r="F32" s="14">
         <v>3.6420968387354935</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="G32" s="16">
+        <v>867.95500000000004</v>
+      </c>
+      <c r="H32" s="16">
+        <v>106.43</v>
+      </c>
+      <c r="I32" s="16">
+        <v>64.224999999999994</v>
+      </c>
+      <c r="J32" s="15">
+        <f>SUM(G32:I32)-SUM(B32:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="14">
+        <v>1991</v>
+      </c>
+      <c r="B33" s="14">
         <v>852.54099999999994</v>
       </c>
-      <c r="B27">
+      <c r="C33" s="14">
         <v>73.400000000000006</v>
       </c>
-      <c r="C27">
+      <c r="D33" s="14">
         <v>70.096999999999994</v>
       </c>
-      <c r="D27">
+      <c r="E33" s="14">
         <v>855.84399999999994</v>
       </c>
-      <c r="E27">
+      <c r="F33" s="14">
         <v>3.386798575385833</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="G33" s="16">
+        <v>852.54099999999994</v>
+      </c>
+      <c r="H33" s="16">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I33" s="16">
+        <v>70.096999999999994</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J49" si="0">SUM(G33:I33)-SUM(B33:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="14">
+        <v>1992</v>
+      </c>
+      <c r="B34" s="14">
         <v>867.221</v>
       </c>
-      <c r="B28">
+      <c r="C34" s="14">
         <v>113.77</v>
       </c>
-      <c r="C28">
+      <c r="D34" s="14">
         <v>78.905000000000001</v>
       </c>
-      <c r="D28">
+      <c r="E34" s="14">
         <v>902.08600000000001</v>
       </c>
-      <c r="E28">
+      <c r="F34" s="14">
         <v>3.5320516836335161</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="G34" s="16">
+        <v>867.221</v>
+      </c>
+      <c r="H34" s="16">
+        <v>113.77</v>
+      </c>
+      <c r="I34" s="16">
+        <v>78.905000000000001</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="14">
+        <v>1993</v>
+      </c>
+      <c r="B35" s="14">
         <v>865.38599999999997</v>
       </c>
-      <c r="B29">
+      <c r="C35" s="14">
         <v>104.595</v>
       </c>
-      <c r="C29">
+      <c r="D35" s="14">
         <v>76.335999999999999</v>
       </c>
-      <c r="D29">
+      <c r="E35" s="14">
         <v>893.64499999999998</v>
       </c>
-      <c r="E29">
+      <c r="F35" s="14">
         <v>3.4623982952344048</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="G35" s="16">
+        <v>865.38599999999997</v>
+      </c>
+      <c r="H35" s="16">
+        <v>104.595</v>
+      </c>
+      <c r="I35" s="16">
+        <v>76.335999999999999</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="14">
+        <v>1994</v>
+      </c>
+      <c r="B36" s="14">
         <v>856.94500000000005</v>
       </c>
-      <c r="B30">
-        <v>111.935</v>
-      </c>
-      <c r="C30">
-        <v>62.39</v>
-      </c>
-      <c r="D30">
+      <c r="C36" s="14">
+        <v>111.935</v>
+      </c>
+      <c r="D36" s="14">
+        <v>62.39</v>
+      </c>
+      <c r="E36" s="14">
         <v>906.49</v>
       </c>
-      <c r="E30">
+      <c r="F36" s="14">
         <v>3.4771384733410047</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="G36" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B31">
-        <v>111.935</v>
-      </c>
-      <c r="C31">
-        <v>62.39</v>
-      </c>
-      <c r="D31">
+      <c r="H36" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I36" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="14">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="14">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C37" s="14">
+        <v>111.935</v>
+      </c>
+      <c r="D37" s="14">
+        <v>62.39</v>
+      </c>
+      <c r="E37" s="14">
         <v>906.49</v>
       </c>
-      <c r="E31">
+      <c r="F37" s="14">
         <v>3.4467300380228134</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="G37" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B32">
-        <v>111.935</v>
-      </c>
-      <c r="C32">
-        <v>62.39</v>
-      </c>
-      <c r="D32">
+      <c r="H37" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I37" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="14">
+        <v>1996</v>
+      </c>
+      <c r="B38" s="14">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C38" s="14">
+        <v>111.935</v>
+      </c>
+      <c r="D38" s="14">
+        <v>62.39</v>
+      </c>
+      <c r="E38" s="14">
         <v>906.49</v>
       </c>
-      <c r="E32">
+      <c r="F38" s="14">
         <v>3.4142749529190204</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="G38" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B33">
-        <v>111.935</v>
-      </c>
-      <c r="C33">
-        <v>62.39</v>
-      </c>
-      <c r="D33">
+      <c r="H38" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I38" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="14">
+        <v>1997</v>
+      </c>
+      <c r="B39" s="14">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C39" s="14">
+        <v>111.935</v>
+      </c>
+      <c r="D39" s="14">
+        <v>62.39</v>
+      </c>
+      <c r="E39" s="14">
         <v>906.49</v>
       </c>
-      <c r="E33">
+      <c r="F39" s="14">
         <v>3.3836879432624114</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="G39" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B34">
-        <v>111.935</v>
-      </c>
-      <c r="C34">
-        <v>62.39</v>
-      </c>
-      <c r="D34">
+      <c r="H39" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I39" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="14">
+        <v>1998</v>
+      </c>
+      <c r="B40" s="14">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C40" s="14">
+        <v>111.935</v>
+      </c>
+      <c r="D40" s="14">
+        <v>62.39</v>
+      </c>
+      <c r="E40" s="14">
         <v>906.49</v>
       </c>
-      <c r="E34">
+      <c r="F40" s="14">
         <v>3.353644099149093</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="G40" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B35">
-        <v>111.935</v>
-      </c>
-      <c r="C35">
-        <v>62.39</v>
-      </c>
-      <c r="D35">
+      <c r="H40" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I40" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+    </row>
+    <row r="41" spans="1:19" ht="16" thickBot="1">
+      <c r="A41" s="17">
+        <v>1999</v>
+      </c>
+      <c r="B41" s="17">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C41" s="17">
+        <v>111.935</v>
+      </c>
+      <c r="D41" s="17">
+        <v>62.39</v>
+      </c>
+      <c r="E41" s="17">
         <v>906.49</v>
       </c>
-      <c r="E35">
+      <c r="F41" s="17">
         <v>3.3180453879941432</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="G41" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B36">
-        <v>111.935</v>
-      </c>
-      <c r="C36">
-        <v>62.39</v>
-      </c>
-      <c r="D36">
+      <c r="H41" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I41" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="15">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C42" s="15">
+        <v>111.935</v>
+      </c>
+      <c r="D42" s="15">
+        <v>62.39</v>
+      </c>
+      <c r="E42" s="15">
         <v>906.49</v>
       </c>
-      <c r="E36">
+      <c r="F42" s="15">
         <v>3.2130451426302953</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="G42" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B37">
-        <v>111.935</v>
-      </c>
-      <c r="C37">
-        <v>62.39</v>
-      </c>
-      <c r="D37">
+      <c r="H42" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I42" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="16" thickBot="1">
+      <c r="A43" s="19">
+        <v>2001</v>
+      </c>
+      <c r="B43" s="15">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C43" s="15">
+        <v>111.935</v>
+      </c>
+      <c r="D43" s="15">
+        <v>62.39</v>
+      </c>
+      <c r="E43" s="15">
         <v>906.49</v>
       </c>
-      <c r="E37">
+      <c r="F43" s="15">
         <v>3.1826544297842156</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="G43" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B38">
-        <v>111.935</v>
-      </c>
-      <c r="C38">
-        <v>62.39</v>
-      </c>
-      <c r="D38">
+      <c r="H43" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I43" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B44" s="20">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C44" s="20">
+        <v>111.935</v>
+      </c>
+      <c r="D44" s="20">
+        <v>62.39</v>
+      </c>
+      <c r="E44" s="20">
         <v>906.49</v>
       </c>
-      <c r="E38">
+      <c r="F44" s="20">
         <v>3.1534913169319823</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="G44" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B39">
-        <v>111.935</v>
-      </c>
-      <c r="C39">
-        <v>62.39</v>
-      </c>
-      <c r="D39">
+      <c r="H44" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I44" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="16" thickBot="1">
+      <c r="A45" s="19">
+        <v>2003</v>
+      </c>
+      <c r="B45" s="20">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C45" s="20">
+        <v>111.935</v>
+      </c>
+      <c r="D45" s="20">
+        <v>62.39</v>
+      </c>
+      <c r="E45" s="20">
         <v>906.49</v>
       </c>
-      <c r="E39">
+      <c r="F45" s="20">
         <v>3.1143046589687122</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="G45" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B40">
-        <v>111.935</v>
-      </c>
-      <c r="C40">
-        <v>62.39</v>
-      </c>
-      <c r="D40">
+      <c r="H45" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I45" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B46" s="20">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C46" s="20">
+        <v>111.935</v>
+      </c>
+      <c r="D46" s="20">
+        <v>62.39</v>
+      </c>
+      <c r="E46" s="20">
         <v>906.49</v>
       </c>
-      <c r="E40">
+      <c r="F46" s="20">
         <v>3.0838132886093255</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="G46" s="16">
         <v>856.94500000000005</v>
       </c>
-      <c r="B41">
-        <v>111.935</v>
-      </c>
-      <c r="C41">
-        <v>62.39</v>
-      </c>
-      <c r="D41">
+      <c r="H46" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I46" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="16" thickBot="1">
+      <c r="A47" s="19">
+        <v>2005</v>
+      </c>
+      <c r="B47" s="20">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="C47" s="20">
+        <v>111.935</v>
+      </c>
+      <c r="D47" s="20">
+        <v>62.39</v>
+      </c>
+      <c r="E47" s="20">
         <v>906.49</v>
       </c>
-      <c r="E41">
+      <c r="F47" s="20">
         <v>3.055477842906595</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="G47" s="16">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="H47" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I47" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="20">
         <v>856.94499999999994</v>
       </c>
-      <c r="B42">
-        <v>111.935</v>
-      </c>
-      <c r="C42">
-        <v>62.39</v>
-      </c>
-      <c r="D42">
+      <c r="C48" s="20">
+        <v>111.935</v>
+      </c>
+      <c r="D48" s="20">
+        <v>62.39</v>
+      </c>
+      <c r="E48" s="20">
         <v>906.4899999999999</v>
       </c>
-      <c r="E42">
+      <c r="F48" s="20">
         <v>3.0292873326605219</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="G48" s="16">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="H48" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I48" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="16" thickBot="1">
+      <c r="A49" s="19">
+        <v>2007</v>
+      </c>
+      <c r="B49" s="20">
         <v>856.94499999999994</v>
       </c>
-      <c r="B43">
-        <v>111.935</v>
-      </c>
-      <c r="C43">
-        <v>62.39</v>
-      </c>
-      <c r="D43">
+      <c r="C49" s="20">
+        <v>111.935</v>
+      </c>
+      <c r="D49" s="20">
+        <v>62.39</v>
+      </c>
+      <c r="E49" s="20">
         <v>906.4899999999999</v>
       </c>
-      <c r="E43">
+      <c r="F49" s="20">
         <v>3.0006289308176095</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="G49" s="16">
+        <v>856.94500000000005</v>
+      </c>
+      <c r="H49" s="16">
+        <v>111.935</v>
+      </c>
+      <c r="I49" s="16">
+        <v>62.39</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B50" s="21">
         <v>856.94499999999994</v>
       </c>
-      <c r="B44">
-        <v>111.935</v>
-      </c>
-      <c r="C44">
-        <v>62.39</v>
-      </c>
-      <c r="D44">
+      <c r="C50" s="21">
+        <v>111.935</v>
+      </c>
+      <c r="D50" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="E50" s="21">
         <v>906.4899999999999</v>
       </c>
-      <c r="E44">
+      <c r="F50" s="21">
         <v>2.9662630890052348</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="16" thickBot="1">
+      <c r="A51" s="19">
+        <v>2009</v>
+      </c>
+      <c r="B51" s="21">
         <v>856.94499999999994</v>
       </c>
-      <c r="B45">
-        <v>111.935</v>
-      </c>
-      <c r="C45">
-        <v>62.39</v>
-      </c>
-      <c r="D45">
+      <c r="C51" s="21">
+        <v>111.935</v>
+      </c>
+      <c r="D51" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="E51" s="21">
         <v>906.4899999999999</v>
       </c>
-      <c r="E45">
+      <c r="F51" s="21">
         <v>2.9480979436261512</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="18">
+        <v>2010</v>
+      </c>
+      <c r="B52" s="21">
         <v>856.94499999999994</v>
       </c>
-      <c r="B46">
-        <v>111.935</v>
-      </c>
-      <c r="C46">
-        <v>62.39</v>
-      </c>
-      <c r="D46">
+      <c r="C52" s="21">
+        <v>111.935</v>
+      </c>
+      <c r="D52" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="E52" s="21">
         <v>906.4899999999999</v>
       </c>
-      <c r="E46">
+      <c r="F52" s="21">
         <v>2.9480979436261512</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" ht="16" thickBot="1">
+      <c r="A53" s="19">
+        <v>2011</v>
+      </c>
+      <c r="B53" s="21">
+        <f>(B$62-B$52)/10+B52</f>
         <v>856.94499999999994</v>
       </c>
-      <c r="B47">
-        <v>111.935</v>
-      </c>
-      <c r="C47">
-        <v>62.39</v>
-      </c>
-      <c r="D47">
+      <c r="C53" s="21">
+        <v>111.935</v>
+      </c>
+      <c r="D53" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="E53" s="21">
         <v>906.4899999999999</v>
       </c>
-      <c r="E47">
+      <c r="F53" s="21">
         <v>2.9480979436261512</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="18">
+        <v>2012</v>
+      </c>
+      <c r="B54" s="21">
+        <f>(B$62-B$52)/10+B53</f>
         <v>856.94499999999994</v>
       </c>
-      <c r="B48">
-        <v>111.935</v>
-      </c>
-      <c r="C48">
-        <v>62.39</v>
-      </c>
-      <c r="D48">
+      <c r="C54" s="21">
+        <v>111.935</v>
+      </c>
+      <c r="D54" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="E54" s="21">
         <v>906.4899999999999</v>
       </c>
-      <c r="E48">
+      <c r="F54" s="21">
         <v>2.9480979436261512</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" ht="16" thickBot="1">
+      <c r="A55" s="19">
+        <v>2013</v>
+      </c>
+      <c r="B55" s="21">
+        <f>(B$62-B$52)/10+B54</f>
         <v>856.94499999999994</v>
       </c>
-      <c r="B49">
-        <v>111.935</v>
-      </c>
-      <c r="C49">
-        <v>62.39</v>
-      </c>
-      <c r="D49">
+      <c r="C55" s="21">
+        <v>111.935</v>
+      </c>
+      <c r="D55" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="E55" s="21">
         <v>906.4899999999999</v>
       </c>
-      <c r="E49">
+      <c r="F55" s="21">
         <v>2.9480979436261512</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="18">
+        <v>2014</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" ref="B56:B61" si="1">(B$62-B$52)/10+B55</f>
         <v>856.94499999999994</v>
       </c>
-      <c r="B50">
+      <c r="C56" s="2">
+        <f t="shared" ref="C56:C61" si="2">0.45/0.3*112</f>
         <v>168</v>
       </c>
-      <c r="C50">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:D62" si="3">D55</f>
+        <v>62.39</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" ht="16" thickBot="1">
+      <c r="A57" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="1"/>
         <v>856.94499999999994</v>
       </c>
-      <c r="B51">
+      <c r="C57" s="2">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="C51">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="D57" s="2">
+        <f t="shared" si="3"/>
+        <v>62.39</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="18">
+        <v>2016</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="1"/>
         <v>856.94499999999994</v>
       </c>
-      <c r="B52">
+      <c r="C58" s="2">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="C52">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="D58" s="2">
+        <f t="shared" si="3"/>
+        <v>62.39</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="16" thickBot="1">
+      <c r="A59" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="1"/>
         <v>856.94499999999994</v>
       </c>
-      <c r="B53">
+      <c r="C59" s="2">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="C53">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="D59" s="2">
+        <f t="shared" si="3"/>
+        <v>62.39</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="1"/>
         <v>856.94499999999994</v>
       </c>
-      <c r="B54">
+      <c r="C60" s="2">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="C54">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="D60" s="2">
+        <f t="shared" si="3"/>
+        <v>62.39</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" ht="16" thickBot="1">
+      <c r="A61" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="1"/>
         <v>856.94499999999994</v>
       </c>
-      <c r="B55">
+      <c r="C61" s="2">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="C55">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="D61" s="2">
+        <f t="shared" si="3"/>
+        <v>62.39</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" ht="16" thickBot="1">
+      <c r="A62" s="18">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="22">
+        <f>B49</f>
         <v>856.94499999999994</v>
       </c>
-      <c r="B56">
-        <v>111.935</v>
-      </c>
-      <c r="C56">
-        <v>62.39</v>
-      </c>
+      <c r="C62" s="2">
+        <f>C52</f>
+        <v>111.935</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="3"/>
+        <v>62.39</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" ht="30">
+      <c r="A63" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2">
+        <v>1992</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1097.4000000000001</v>
+      </c>
+      <c r="K64" s="2">
+        <f>J64*1000*M64</f>
+        <v>402745.8</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2">
+        <v>1997</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1020.2</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2">
+        <v>2002</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1024.2</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A65:F65"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>